--- a/ts.xlsx
+++ b/ts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Transitus18.TRANSITUS18-PC\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF695D4-4A0B-4C45-8882-794B6E75FBA1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11A86613-C30B-4B34-A004-8ADEA21CE806}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="94">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -370,7 +370,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:K107" totalsRowShown="0">
-  <autoFilter ref="A1:K107" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <autoFilter ref="A1:K107" xr:uid="{00000000-0009-0000-0100-000001000000}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TestScenarioID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="TestCaseID"/>
@@ -675,8 +681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E4" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20:I91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -755,7 +761,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
         <v>18</v>
       </c>
@@ -769,7 +775,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F4" t="s">
         <v>22</v>
       </c>
@@ -780,7 +786,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
         <v>25</v>
       </c>
@@ -794,7 +800,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F6" t="s">
         <v>29</v>
       </c>
@@ -805,7 +811,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F7" t="s">
         <v>32</v>
       </c>
@@ -816,7 +822,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
         <v>35</v>
       </c>
@@ -827,7 +833,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
         <v>38</v>
       </c>
@@ -838,7 +844,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F10" t="s">
         <v>41</v>
       </c>
@@ -849,7 +855,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F11" t="s">
         <v>44</v>
       </c>
@@ -860,7 +866,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F12" t="s">
         <v>47</v>
       </c>
@@ -871,7 +877,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F13" t="s">
         <v>50</v>
       </c>
@@ -882,7 +888,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F14" t="s">
         <v>53</v>
       </c>
@@ -893,7 +899,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F15" t="s">
         <v>56</v>
       </c>
@@ -904,7 +910,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F16" t="s">
         <v>59</v>
       </c>
@@ -915,7 +921,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F17" t="s">
         <v>62</v>
       </c>
@@ -926,7 +932,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F18" t="s">
         <v>65</v>
       </c>
@@ -937,7 +943,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F19" t="s">
         <v>68</v>
       </c>
@@ -977,7 +983,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
         <v>18</v>
       </c>
@@ -991,7 +997,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F22" t="s">
         <v>22</v>
       </c>
@@ -1002,7 +1008,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
         <v>25</v>
       </c>
@@ -1016,7 +1022,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F24" t="s">
         <v>29</v>
       </c>
@@ -1027,7 +1033,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F25" t="s">
         <v>32</v>
       </c>
@@ -1038,7 +1044,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F26" t="s">
         <v>35</v>
       </c>
@@ -1049,7 +1055,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F27" t="s">
         <v>38</v>
       </c>
@@ -1060,7 +1066,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F28" t="s">
         <v>41</v>
       </c>
@@ -1071,7 +1077,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F29" t="s">
         <v>44</v>
       </c>
@@ -1082,7 +1088,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F30" t="s">
         <v>47</v>
       </c>
@@ -1093,7 +1099,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F31" t="s">
         <v>50</v>
       </c>
@@ -1104,7 +1110,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F32" t="s">
         <v>53</v>
       </c>
@@ -1115,7 +1121,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F33" t="s">
         <v>56</v>
       </c>
@@ -1126,7 +1132,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F34" t="s">
         <v>62</v>
       </c>
@@ -1137,7 +1143,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F35" t="s">
         <v>59</v>
       </c>
@@ -1148,7 +1154,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F36" t="s">
         <v>62</v>
       </c>
@@ -1159,7 +1165,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F37" t="s">
         <v>65</v>
       </c>
@@ -1170,7 +1176,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>91</v>
       </c>
@@ -1192,8 +1198,11 @@
       <c r="H38" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I38" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="E39" t="s">
         <v>18</v>
       </c>
@@ -1207,7 +1216,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F40" t="s">
         <v>22</v>
       </c>
@@ -1218,7 +1227,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="E41" t="s">
         <v>25</v>
       </c>
@@ -1232,7 +1241,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F42" t="s">
         <v>29</v>
       </c>
@@ -1243,7 +1252,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F43" t="s">
         <v>32</v>
       </c>
@@ -1254,7 +1263,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F44" t="s">
         <v>35</v>
       </c>
@@ -1265,7 +1274,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F45" t="s">
         <v>38</v>
       </c>
@@ -1276,7 +1285,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F46" t="s">
         <v>41</v>
       </c>
@@ -1287,7 +1296,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F47" t="s">
         <v>44</v>
       </c>
@@ -1298,7 +1307,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F48" t="s">
         <v>47</v>
       </c>
@@ -1309,7 +1318,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F49" t="s">
         <v>50</v>
       </c>
@@ -1320,7 +1329,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F50" t="s">
         <v>53</v>
       </c>
@@ -1331,7 +1340,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F51" t="s">
         <v>56</v>
       </c>
@@ -1342,7 +1351,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F52" t="s">
         <v>59</v>
       </c>
@@ -1353,7 +1362,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F53" t="s">
         <v>62</v>
       </c>
@@ -1364,7 +1373,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F54" t="s">
         <v>65</v>
       </c>
@@ -1375,7 +1384,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>11</v>
       </c>
@@ -1397,8 +1406,11 @@
       <c r="H55" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I55" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="E56" t="s">
         <v>18</v>
       </c>
@@ -1412,7 +1424,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F57" t="s">
         <v>22</v>
       </c>
@@ -1423,7 +1435,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="E58" t="s">
         <v>25</v>
       </c>
@@ -1437,7 +1449,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F59" t="s">
         <v>29</v>
       </c>
@@ -1448,7 +1460,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F60" t="s">
         <v>32</v>
       </c>
@@ -1459,7 +1471,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F61" t="s">
         <v>35</v>
       </c>
@@ -1470,7 +1482,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F62" t="s">
         <v>38</v>
       </c>
@@ -1481,7 +1493,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F63" t="s">
         <v>41</v>
       </c>
@@ -1492,7 +1504,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F64" t="s">
         <v>44</v>
       </c>
@@ -1503,7 +1515,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F65" t="s">
         <v>47</v>
       </c>
@@ -1514,7 +1526,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F66" t="s">
         <v>50</v>
       </c>
@@ -1525,7 +1537,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F67" t="s">
         <v>53</v>
       </c>
@@ -1536,7 +1548,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F68" t="s">
         <v>56</v>
       </c>
@@ -1547,7 +1559,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F69" t="s">
         <v>59</v>
       </c>
@@ -1558,7 +1570,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F70" t="s">
         <v>62</v>
       </c>
@@ -1569,7 +1581,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F71" t="s">
         <v>65</v>
       </c>
@@ -1580,7 +1592,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F72" t="s">
         <v>68</v>
       </c>
@@ -1616,8 +1628,11 @@
       <c r="H73" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I73" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E74" t="s">
         <v>18</v>
       </c>
@@ -1631,7 +1646,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F75" t="s">
         <v>22</v>
       </c>
@@ -1642,7 +1657,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="E76" t="s">
         <v>25</v>
       </c>
@@ -1656,7 +1671,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F77" t="s">
         <v>29</v>
       </c>
@@ -1667,7 +1682,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F78" t="s">
         <v>32</v>
       </c>
@@ -1678,7 +1693,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F79" t="s">
         <v>35</v>
       </c>
@@ -1689,7 +1704,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="F80" t="s">
         <v>38</v>
       </c>
@@ -1700,7 +1715,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F81" t="s">
         <v>41</v>
       </c>
@@ -1711,7 +1726,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F82" t="s">
         <v>44</v>
       </c>
@@ -1722,7 +1737,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F83" t="s">
         <v>47</v>
       </c>
@@ -1733,7 +1748,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F84" t="s">
         <v>50</v>
       </c>
@@ -1744,7 +1759,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F85" t="s">
         <v>53</v>
       </c>
@@ -1755,7 +1770,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F86" t="s">
         <v>56</v>
       </c>
@@ -1766,7 +1781,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F87" t="s">
         <v>62</v>
       </c>
@@ -1777,7 +1792,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F88" t="s">
         <v>59</v>
       </c>
@@ -1788,7 +1803,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F89" t="s">
         <v>62</v>
       </c>
@@ -1799,7 +1814,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F90" t="s">
         <v>65</v>
       </c>
@@ -1810,7 +1825,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>91</v>
       </c>
@@ -1832,8 +1847,11 @@
       <c r="H91" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I91" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="E92" t="s">
         <v>18</v>
       </c>
@@ -1847,7 +1865,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F93" t="s">
         <v>22</v>
       </c>
@@ -1858,7 +1876,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="E94" t="s">
         <v>25</v>
       </c>
@@ -1872,7 +1890,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F95" t="s">
         <v>29</v>
       </c>
@@ -1883,7 +1901,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F96" t="s">
         <v>32</v>
       </c>
@@ -1894,7 +1912,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="97" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="6:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="F97" t="s">
         <v>35</v>
       </c>
@@ -1905,7 +1923,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="98" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="6:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="F98" t="s">
         <v>38</v>
       </c>
@@ -1916,7 +1934,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="99" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="6:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="F99" t="s">
         <v>41</v>
       </c>
@@ -1927,7 +1945,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="100" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="6:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="F100" t="s">
         <v>44</v>
       </c>
@@ -1938,7 +1956,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="101" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="6:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="F101" t="s">
         <v>47</v>
       </c>
@@ -1949,7 +1967,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="102" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="6:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="F102" t="s">
         <v>50</v>
       </c>
@@ -1960,7 +1978,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="103" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="6:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="F103" t="s">
         <v>53</v>
       </c>
@@ -1971,7 +1989,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="104" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="6:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="F104" t="s">
         <v>56</v>
       </c>
@@ -1982,7 +2000,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="105" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="6:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="F105" t="s">
         <v>59</v>
       </c>
@@ -1993,7 +2011,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="106" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="6:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="F106" t="s">
         <v>62</v>
       </c>
@@ -2004,7 +2022,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="107" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="6:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="F107" t="s">
         <v>65</v>
       </c>
